--- a/.Study plan/MasterDegree_StudyPlan.xlsx
+++ b/.Study plan/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\UniPD-MSc-Computer-Science-courses\.Study plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B704C02C-2CF1-47E0-A5EF-FF851491C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9961359-914F-4C7C-A8D0-0E57F7C80B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Computability</t>
   </si>
@@ -171,16 +171,10 @@
     <t>Thomas Marchioro</t>
   </si>
   <si>
-    <t>ATTENDING</t>
-  </si>
-  <si>
     <t>Game Theory</t>
   </si>
   <si>
     <t>Project + oral</t>
-  </si>
-  <si>
-    <t>PROJECT PHASE</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -198,9 +192,6 @@
       </rPr>
       <t>+ oral</t>
     </r>
-  </si>
-  <si>
-    <t>LEGEND</t>
   </si>
   <si>
     <t>Other training activities</t>
@@ -335,7 +326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,12 +509,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,9 +518,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,6 +531,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,36 +1358,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1421,15 +1412,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>39</v>
@@ -1452,9 +1441,7 @@
       <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -1482,9 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -1511,7 +1496,7 @@
       <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1524,7 +1509,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7">
@@ -1577,8 +1562,8 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>42</v>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1595,7 +1580,7 @@
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>38</v>
@@ -1604,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1630,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -1656,7 +1641,7 @@
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="7">
@@ -1674,103 +1659,105 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26">
+        <v>6</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E15" s="21">
         <v>2</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G15" s="21">
         <v>6</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="H15" s="22"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="21">
         <v>2</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G16" s="21">
         <v>6</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="H16" s="22"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G17" s="21">
         <v>6</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="24">
-        <v>2</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>6</v>
-      </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -1783,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1799,10 +1786,10 @@
     </row>
     <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -1820,8 +1807,8 @@
         <v>6</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="J19" s="20" t="s">
-        <v>57</v>
+      <c r="J19" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/.Study plan/MasterDegree_StudyPlan.xlsx
+++ b/.Study plan/MasterDegree_StudyPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\UniPD-MSc-Computer-Science-courses\.Study plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9961359-914F-4C7C-A8D0-0E57F7C80B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE12ECD-820C-4045-B897-C147B07F733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Computability</t>
   </si>
@@ -137,8 +137,88 @@
     <t>Economics and management of innovation</t>
   </si>
   <si>
+    <t>Wireless networks for mobile applications</t>
+  </si>
+  <si>
+    <t>Individual/team project + oral</t>
+  </si>
+  <si>
+    <t>Small project/report + multiple choice test</t>
+  </si>
+  <si>
+    <t>Project + written</t>
+  </si>
+  <si>
+    <t>Fabio D'Alessi</t>
+  </si>
+  <si>
+    <t>Thomas Marchioro</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
+  </si>
+  <si>
+    <t>Project + oral</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">MASTER DEGREE STUDY PLAN </t>
+      <t xml:space="preserve">Project </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ oral</t>
+    </r>
+  </si>
+  <si>
+    <t>Other training activities</t>
+  </si>
+  <si>
+    <t>Team project + written</t>
+  </si>
+  <si>
+    <t>Start-Up in ICT</t>
+  </si>
+  <si>
+    <t>Law and data</t>
+  </si>
+  <si>
+    <t>Internet of things and smart cities</t>
+  </si>
+  <si>
+    <t>Fiorella Dal Monte</t>
+  </si>
+  <si>
+    <t>Marco Giordani</t>
+  </si>
+  <si>
+    <t>Davide Bresolin Giovanni Da San Martino</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Free choice</t>
+  </si>
+  <si>
+    <t>Two reports during the course + multiple choice final test</t>
+  </si>
+  <si>
+    <t>Cyber physical systems and IoT security</t>
+  </si>
+  <si>
+    <t>5/6 credits awarded</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MASTER DEGREE STUDY PLAN 2023-2025 </t>
     </r>
     <r>
       <rPr>
@@ -151,86 +231,17 @@
       </rPr>
       <t>(based on IMS)</t>
     </r>
-  </si>
-  <si>
-    <t>Wireless networks for mobile applications</t>
-  </si>
-  <si>
-    <t>Individual/team project + oral</t>
-  </si>
-  <si>
-    <t>Small project/report + multiple choice test</t>
-  </si>
-  <si>
-    <t>Project + written</t>
-  </si>
-  <si>
-    <t>Fabio D'Alessi</t>
-  </si>
-  <si>
-    <t>Thomas Marchioro</t>
-  </si>
-  <si>
-    <t>Game Theory</t>
-  </si>
-  <si>
-    <t>Project + oral</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Project </t>
-    </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+ oral</t>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Other training activities</t>
-  </si>
-  <si>
-    <t>Team project + written</t>
-  </si>
-  <si>
-    <t>Start-Up in ICT</t>
-  </si>
-  <si>
-    <t>Law and data</t>
-  </si>
-  <si>
-    <t>Internet of things and smart cities</t>
-  </si>
-  <si>
-    <t>Fiorella Dal Monte</t>
-  </si>
-  <si>
-    <t>Marco Giordani</t>
-  </si>
-  <si>
-    <t>Davide Bresolin Giovanni Da San Martino</t>
-  </si>
-  <si>
-    <t>Oral</t>
-  </si>
-  <si>
-    <t>Free choice</t>
-  </si>
-  <si>
-    <t>2/ 6 credits awarded</t>
-  </si>
-  <si>
-    <t>Two reports during the course + multiple choice final test</t>
-  </si>
-  <si>
-    <t>Cyber physical systems and IoT security</t>
   </si>
 </sst>
 </file>
@@ -530,6 +541,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,12 +557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,6 +839,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -857,13 +875,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -920,7 +931,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>922980</xdr:colOff>
+      <xdr:colOff>793440</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>46602</xdr:rowOff>
     </xdr:to>
@@ -963,8 +974,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1318259</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -1020,7 +1031,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}" name="Tabella2" displayName="Tabella2" ref="A4:H20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
   <autoFilter ref="A4:H20" xr:uid="{F8406AB2-104B-4585-87AD-689DBD0111DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H20">
     <sortCondition ref="H4:H20"/>
@@ -1338,13 +1349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
@@ -1352,42 +1363,42 @@
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.77734375" customWidth="1"/>
     <col min="11" max="11" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1412,16 +1423,16 @@
         <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -1441,7 +1452,7 @@
       <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -1469,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="29"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -1482,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1563,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1580,16 +1591,16 @@
     </row>
     <row r="11" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1615,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -1642,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -1659,94 +1670,98 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F15" s="28">
         <v>1</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G15" s="28">
         <v>6</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21">
-        <v>6</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="21">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21">
-        <v>6</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
@@ -1759,59 +1774,59 @@
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="21">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
+        <v>6</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="D19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="7">
-        <v>3</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="G19" s="21">
         <v>6</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="J19" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="22"/>
+      <c r="I19" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>30</v>
       </c>
@@ -1835,7 +1850,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1850,7 +1865,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H3"/>

--- a/.Study plan/MasterDegree_StudyPlan.xlsx
+++ b/.Study plan/MasterDegree_StudyPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\GitHub\Repo\UniPD-MSc-Computer-Science-courses\.Study plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE12ECD-820C-4045-B897-C147B07F733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F1DF86-605E-48AD-8251-D9D9ED4170D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CCEDFCE-005C-40C2-92E8-4E076261F21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Computability</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Cyber physical systems and IoT security</t>
-  </si>
-  <si>
-    <t>5/6 credits awarded</t>
   </si>
   <si>
     <r>
@@ -242,6 +239,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>4/6 credits awarded (waiting for last 2 CFU)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,9 +523,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,8 +553,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E4B725-BD0D-4291-9550-3225AF05D5FC}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,36 +1372,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1425,7 +1428,7 @@
       <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -1452,7 +1455,7 @@
       <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -1480,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -1507,7 +1510,7 @@
       <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,28 +1700,28 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="16"/>
@@ -1751,79 +1754,81 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <v>6</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="20">
         <v>6</v>
       </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="H18" s="21"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="20">
         <v>6</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="21">
-        <v>6</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="18" t="s">
-        <v>55</v>
+      <c r="H19" s="21"/>
+      <c r="I19" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
